--- a/DataSynthesis/ExperimentDesign.xlsx
+++ b/DataSynthesis/ExperimentDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\DataSynthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\DataSynthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
-    <t>Delay</t>
-  </si>
-  <si>
     <t>100 ms</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Experiment</t>
+  </si>
+  <si>
+    <t>Time Elapsed</t>
   </si>
 </sst>
 </file>
@@ -462,234 +462,234 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="6" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>1000</v>
@@ -704,22 +704,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
